--- a/京mafu表格 (1).xlsx
+++ b/京mafu表格 (1).xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="610" yWindow="500" windowWidth="17950" windowHeight="6720"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="贴纸" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="贴纸" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="137">
   <si>
     <t>三星</t>
   </si>
@@ -417,21 +420,55 @@
   </si>
   <si>
     <t>恭喜</t>
+  </si>
+  <si>
+    <t>就，随便改个啥。吐槽一句京mafu配比太狗了。没了。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说不退出也行，我再试试。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -439,7 +476,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -467,42 +504,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -518,17 +557,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="4762500" cy="2676525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -554,17 +594,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
+        <xdr:cNvPr id="3" name="image2.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="4762500" cy="2676525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -590,17 +631,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg" title="Image"/>
+        <xdr:cNvPr id="4" name="image3.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="4762500" cy="2676525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -614,50 +656,334 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L1" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M1" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N1" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O1" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="P1" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
@@ -677,7 +1003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
@@ -700,7 +1026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G4" s="1" t="s">
         <v>50</v>
       </c>
@@ -720,7 +1046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
         <v>56</v>
       </c>
@@ -731,7 +1057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
@@ -754,7 +1080,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
         <v>66</v>
       </c>
@@ -784,7 +1110,7 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
         <v>70</v>
       </c>
@@ -801,7 +1127,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
         <v>71</v>
       </c>
@@ -821,7 +1147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>74</v>
       </c>
@@ -841,7 +1167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>76</v>
       </c>
@@ -861,7 +1187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
         <v>79</v>
       </c>
@@ -881,7 +1207,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
         <v>81</v>
       </c>
@@ -904,7 +1230,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
@@ -921,7 +1247,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
         <v>35</v>
       </c>
@@ -929,7 +1255,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
         <v>92</v>
       </c>
@@ -952,7 +1278,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
         <v>95</v>
       </c>
@@ -984,33 +1310,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G19" s="1" t="s">
         <v>102</v>
       </c>
       <c r="H19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L19" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M19" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N19" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G20" s="1" t="s">
         <v>103</v>
       </c>
@@ -1033,7 +1359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G21" s="1" t="s">
         <v>104</v>
       </c>
@@ -1056,7 +1382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G22" s="1" t="s">
         <v>105</v>
       </c>
@@ -1082,7 +1408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G23" s="1" t="s">
         <v>106</v>
       </c>
@@ -1103,7 +1429,7 @@
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>107</v>
       </c>
@@ -1123,7 +1449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>108</v>
       </c>
@@ -1143,7 +1469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>73</v>
       </c>
@@ -1155,7 +1481,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1178,7 +1504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>111</v>
       </c>
@@ -1198,7 +1524,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>113</v>
       </c>
@@ -1218,7 +1544,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>114</v>
       </c>
@@ -1238,7 +1564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>115</v>
       </c>
@@ -1258,7 +1584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G32" s="1" t="s">
         <v>90</v>
       </c>
@@ -1278,7 +1604,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1304,7 +1630,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G34" s="1" t="s">
         <v>117</v>
       </c>
@@ -1324,7 +1650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1336,36 +1662,36 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G37" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K37" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L37" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M37" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N37" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O37" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,7 +1718,7 @@
       </c>
       <c r="O38" s="7"/>
     </row>
-    <row r="39">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G39" s="1" t="s">
         <v>119</v>
       </c>
@@ -1412,7 +1738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>120</v>
       </c>
@@ -1435,7 +1761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G41" s="1" t="s">
         <v>53</v>
       </c>
@@ -1452,7 +1778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G42" s="1" t="s">
         <v>122</v>
       </c>
@@ -1472,7 +1798,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G43" s="1" t="s">
         <v>123</v>
       </c>
@@ -1492,7 +1818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G44" s="1" t="s">
         <v>124</v>
       </c>
@@ -1512,7 +1838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G45" s="1" t="s">
         <v>125</v>
       </c>
@@ -1533,7 +1859,7 @@
       </c>
       <c r="M45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G46" s="1" t="s">
         <v>126</v>
       </c>
@@ -1553,7 +1879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G47" s="1" t="s">
         <v>73</v>
       </c>
@@ -1567,7 +1893,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G48" s="1" t="s">
         <v>127</v>
       </c>
@@ -1587,7 +1913,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1603,7 +1929,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G50" s="1" t="s">
         <v>35</v>
       </c>
@@ -1614,7 +1940,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G51" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,7 +1960,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G52" s="1" t="s">
         <v>117</v>
       </c>
@@ -1654,7 +1980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G53" s="1" t="s">
         <v>128</v>
       </c>
@@ -1674,7 +2000,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G54" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,10 +2023,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>129</v>
       </c>
@@ -1711,58 +2037,58 @@
       <c r="E56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D57" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D58" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E58" s="1"/>
       <c r="J58" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E59" s="1"/>
       <c r="J59" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
@@ -1774,50 +2100,60 @@
         <v>60</v>
       </c>
       <c r="D60" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E60" s="1"/>
       <c r="J60" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B61" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="1"/>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1838,489 +2174,490 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B27" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B31" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B33" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B34" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B35" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B36" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B37" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B38" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/京mafu表格 (1).xlsx
+++ b/京mafu表格 (1).xlsx
@@ -945,13 +945,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
@@ -983,7 +983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
         <v>66</v>
       </c>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
         <v>70</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
         <v>71</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>76</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
         <v>79</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
         <v>81</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
         <v>92</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
         <v>95</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G19" s="1" t="s">
         <v>102</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G20" s="1" t="s">
         <v>103</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G21" s="1" t="s">
         <v>104</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G22" s="1" t="s">
         <v>105</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G23" s="1" t="s">
         <v>106</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>107</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>108</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>73</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>111</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>113</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>114</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>115</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G32" s="1" t="s">
         <v>90</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G34" s="1" t="s">
         <v>117</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G37" s="1" t="s">
         <v>118</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G39" s="1" t="s">
         <v>119</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>120</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G41" s="1" t="s">
         <v>53</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G42" s="1" t="s">
         <v>122</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G43" s="1" t="s">
         <v>123</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G44" s="1" t="s">
         <v>124</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G45" s="1" t="s">
         <v>125</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G46" s="1" t="s">
         <v>126</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G47" s="1" t="s">
         <v>73</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G48" s="1" t="s">
         <v>127</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G50" s="1" t="s">
         <v>35</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G51" s="1" t="s">
         <v>32</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G52" s="1" t="s">
         <v>117</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G53" s="1" t="s">
         <v>128</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G54" s="1" t="s">
         <v>20</v>
       </c>
@@ -2023,10 +2023,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>129</v>
       </c>
@@ -2037,7 +2037,7 @@
       <c r="E56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>100</v>
       </c>
@@ -2124,11 +2124,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>135</v>
       </c>
